--- a/medicine/Mort/Décès_en_1913/Décès_en_1913.xlsx
+++ b/medicine/Mort/Décès_en_1913/Décès_en_1913.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>3 janvier : Achille Cesbron, peintre français (° 5 novembre 1849).
 6 janvier :
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +579,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>4 février : John Gordon Sprigg,  administrateur et homme politique britannique (° 27 avril 1830).
 5 février : Auguste Moreau-Deschanvres, peintre français  (° 9 décembre 1838).
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,7 +617,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2 mars : Thomas Hodgkin, banquier et historien britannique (° 29 juillet 1831).
 3 mars :
@@ -627,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,7 +663,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>4 avril : Konstantínos Mános, poète nationaliste, sportif et homme politique grec (° 9 septembre 1869).
 10 avril : François Lafon, peintre français (° 13 juillet 1846).
@@ -661,7 +681,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,7 +699,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2 mai : Joseph Unger, avocat, écrivain et homme politique autrichien puis austro-hongrois (° 2 juillet 1828).
 5 mai : Henry Moret, peintre français (° 12 décembre 1856).
@@ -698,7 +720,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -716,7 +738,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>8 juin : Emily Wilding Davison, suffragette britannique, membre du Women's Social and Political Union (° 11 octobre 1872).
 13 juin : Camille Lemonnier, romancier, conteur, nouvelliste, essayiste belge (° 24 mars 1844).
@@ -734,7 +758,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,7 +776,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>10 juillet : Mikoláš Aleš, aquarelliste, dessinateur et illustrateur austro-hongrois (° 18 novembre 1852).
 12 juillet : Gaston de La Touche, peintre, graveur, illustrateur et sculpteur français (° 22 octobre 1854).
@@ -768,7 +794,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,7 +812,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>7 août :
 Vittorio Avanzi, peintre italien (° 21 février 1850).
@@ -806,7 +834,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -824,7 +852,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>3 septembre : Victor Fulconis, sculpteur, peintre et illustrateur français (° 18 janvier 1851).
 7 septembre : José de Calasanz Félix Santiago Vives y Tutó, capucin et cardinal espagnol (° 23 février 1854).
@@ -842,7 +872,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,7 +890,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>4 octobre : Josep Tapiró i Baró, peintre espagnol (° 7 février 1836).
 9 octobre : Wilfrid-Constant Beauquesne, peintre français (° 28 octobre 1840).
@@ -877,7 +909,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -895,7 +927,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>3 novembre : Hans Bronsart von Schellendorff, compositeur, chef d'orchestre et pianiste allemand (° 11 février 1830).
 7 novembre : Alfred Russel Wallace, naturaliste britannique (° 8 janvier 1823).
@@ -920,7 +954,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1913</t>
+          <t>Décès_en_1913</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -938,7 +972,9 @@
           <t>Date inconnue</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Mario Carl-Rosa, peintre paysagiste, écrivain et journaliste français (° 29 octobre 1853).
 Alix-Louise Enault, peintre française (° 1850).
